--- a/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/modulat/12000_2100_ZERO-E.SEC.xlsx
+++ b/vertx-pin/zero-rbac/src/main/resources/plugin/rbac/oob/modulat/12000_2100_ZERO-E.SEC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-rbac/src/main/resources/modulat/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/zero-cloud/vertx-zero/vertx-env/exec-toolkit/configuration/modulat/zero-rbac/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F28EEE5-3E1E-AE49-A922-193E03128563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73485ADC-9D3E-204D-8812-36E87C1D95D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48480" yWindow="-1460" windowWidth="52960" windowHeight="26900" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="9700" yWindow="820" windowWidth="38400" windowHeight="22580" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-LDATA" sheetId="6" r:id="rId1"/>
@@ -322,10 +322,6 @@
     <t>39c6c534-c06b-47c3-9302-3b86116518a3</t>
   </si>
   <si>
-    <t>0a8c3e34-d359-48ab-86af-17898c50a007</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>JSON:modulat/zero-e.security/SEC_GROUP/ui-config.json</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -387,6 +383,10 @@
   </si>
   <si>
     <t>JSON:modulat/zero-e.security/SEC_PERM/lic-menu.json</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a94f83ae-7320-4358-a372-a683c3eece07</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -894,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B153567-C702-204F-B537-960DCAAE5957}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21"/>
@@ -1004,7 +1004,7 @@
         <v>68</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>59</v>
@@ -1169,10 +1169,10 @@
         <v>60</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F15" s="5">
         <v>1005</v>
@@ -1185,10 +1185,10 @@
         <v>1</v>
       </c>
       <c r="J15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="L15" s="12" t="s">
         <v>50</v>
@@ -1215,10 +1215,10 @@
         <v>61</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="8" t="s">
         <v>78</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="F16" s="5">
         <v>1010</v>
@@ -1231,10 +1231,10 @@
         <v>1</v>
       </c>
       <c r="J16" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="8" t="s">
         <v>80</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="L16" s="12" t="s">
         <v>50</v>
@@ -1261,10 +1261,10 @@
         <v>62</v>
       </c>
       <c r="D17" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="F17" s="5">
         <v>1015</v>
@@ -1277,10 +1277,10 @@
         <v>1</v>
       </c>
       <c r="J17" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>84</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>85</v>
       </c>
       <c r="L17" s="12" t="s">
         <v>50</v>
@@ -1307,10 +1307,10 @@
         <v>63</v>
       </c>
       <c r="D18" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>86</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>87</v>
       </c>
       <c r="F18" s="5">
         <v>1020</v>
@@ -1323,10 +1323,10 @@
         <v>1</v>
       </c>
       <c r="J18" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K18" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>89</v>
       </c>
       <c r="L18" s="12" t="s">
         <v>50</v>
